--- a/data/statistical/filled_NaN_xlsx/四川省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/四川省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>41.1361</v>
       </c>
       <c r="E2">
-        <v>1899.294642269611</v>
+        <v>1899.294642776251</v>
       </c>
       <c r="F2">
         <v>5413.08</v>
@@ -609,85 +609,85 @@
         <v>3.89</v>
       </c>
       <c r="H2">
-        <v>40.93682146593346</v>
+        <v>40.9368214669521</v>
       </c>
       <c r="I2">
-        <v>4.267182662544656</v>
+        <v>4.267182662570121</v>
       </c>
       <c r="J2">
-        <v>12.5926458388567</v>
+        <v>12.5926457978785</v>
       </c>
       <c r="K2">
-        <v>48.21614524151664</v>
+        <v>48.21614523883909</v>
       </c>
       <c r="L2">
-        <v>1.137369715801469</v>
+        <v>1.137369715794193</v>
       </c>
       <c r="M2">
-        <v>253.1959065403789</v>
+        <v>253.1959065366536</v>
       </c>
       <c r="N2">
-        <v>209.3771591720014</v>
+        <v>204.5881689561967</v>
       </c>
       <c r="O2">
-        <v>30.25367647828534</v>
+        <v>30.25367646990344</v>
       </c>
       <c r="P2">
-        <v>4174.617887670885</v>
+        <v>3337.561636353296</v>
       </c>
       <c r="Q2">
-        <v>77.43725490459474</v>
+        <v>77.43725490215002</v>
       </c>
       <c r="R2">
-        <v>19.33400928159244</v>
+        <v>19.33400927856565</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-72547.94007587433</v>
       </c>
       <c r="T2">
-        <v>181194.2418215292</v>
+        <v>135360.1085699887</v>
       </c>
       <c r="U2">
-        <v>1.262307692326431</v>
+        <v>1.262307692344621</v>
       </c>
       <c r="V2">
-        <v>17.34236326767132</v>
+        <v>17.3423632690683</v>
       </c>
       <c r="W2">
-        <v>29.25021977932192</v>
+        <v>29.25021978118457</v>
       </c>
       <c r="X2">
-        <v>16642.678781323</v>
+        <v>21021.85527715089</v>
       </c>
       <c r="Y2">
-        <v>53.09381108742701</v>
+        <v>53.60623029787033</v>
       </c>
       <c r="Z2">
-        <v>449020.9677639903</v>
+        <v>320124.0895319364</v>
       </c>
       <c r="AA2">
-        <v>352.8688812218606</v>
+        <v>-15.80952380422968</v>
       </c>
       <c r="AB2">
-        <v>371476.2703361511</v>
+        <v>-16075.50951689482</v>
       </c>
       <c r="AC2">
-        <v>1150438.980728149</v>
+        <v>-10376.91428220272</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>44.90743064002819</v>
       </c>
       <c r="AE2">
-        <v>-7.701357019560419</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3543.820708925565</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH2">
-        <v>212525.0331897736</v>
+        <v>-6390.250014066696</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>3.12</v>
       </c>
       <c r="H3">
-        <v>40.80005675976281</v>
+        <v>40.80005676066503</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
-        <v>8.735707879066467</v>
+        <v>8.735707849264145</v>
       </c>
       <c r="K3">
         <v>42.5644420026664</v>
@@ -743,13 +743,13 @@
         <v>81.5</v>
       </c>
       <c r="R3">
-        <v>16.23524509323761</v>
+        <v>16.23524508974515</v>
       </c>
       <c r="S3">
         <v>36260.5</v>
       </c>
       <c r="T3">
-        <v>161138.1365648416</v>
+        <v>143080.8591989919</v>
       </c>
       <c r="U3">
         <v>1.09</v>
@@ -764,34 +764,34 @@
         <v>6970</v>
       </c>
       <c r="Y3">
-        <v>57.31635797621642</v>
+        <v>58.433034979832</v>
       </c>
       <c r="Z3">
-        <v>428301.9368802316</v>
+        <v>202494.4015645712</v>
       </c>
       <c r="AA3">
-        <v>309.4597902912647</v>
+        <v>-12.57142856623977</v>
       </c>
       <c r="AB3">
-        <v>304258.0776405334</v>
+        <v>-13369.00713694096</v>
       </c>
       <c r="AC3">
-        <v>993597.9083023071</v>
+        <v>-8794.18571126461</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>39.27188053669617</v>
       </c>
       <c r="AE3">
-        <v>9405.660379890553</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3335.949511089778</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH3">
-        <v>194511.8562707901</v>
+        <v>-5448.250012159348</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>2.78</v>
       </c>
       <c r="H4">
-        <v>40.77421568625141</v>
+        <v>40.77421568709542</v>
       </c>
       <c r="I4">
         <v>4.4</v>
       </c>
       <c r="J4">
-        <v>13.41357490420341</v>
+        <v>13.41357487812638</v>
       </c>
       <c r="K4">
         <v>35.738749739405</v>
@@ -847,7 +847,7 @@
         <v>82.06999999999999</v>
       </c>
       <c r="R4">
-        <v>13.60867646720726</v>
+        <v>13.60867646336555</v>
       </c>
       <c r="S4">
         <v>44269.7</v>
@@ -868,34 +868,34 @@
         <v>8232</v>
       </c>
       <c r="Y4">
-        <v>52.3261707359101</v>
+        <v>58.78495728562129</v>
       </c>
       <c r="Z4">
         <v>370130</v>
       </c>
       <c r="AA4">
-        <v>271.5497003626078</v>
+        <v>-9.642857138067484</v>
       </c>
       <c r="AB4">
-        <v>253749.9099845886</v>
+        <v>-10886.77856642008</v>
       </c>
       <c r="AC4">
-        <v>861319.9856033325</v>
+        <v>-7323.599997401237</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>44.4976651612016</v>
       </c>
       <c r="AE4">
-        <v>52581.47744806984</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1908.50981247778</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH4">
-        <v>179612.2486839294</v>
+        <v>-4579.750010371208</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.6</v>
       </c>
       <c r="J5">
-        <v>26.62624690309167</v>
+        <v>26.62624687328935</v>
       </c>
       <c r="K5">
         <v>32.7307687099701</v>
@@ -972,34 +972,34 @@
         <v>9426</v>
       </c>
       <c r="Y5">
-        <v>58.28844941769721</v>
+        <v>60.57805157668492</v>
       </c>
       <c r="Z5">
         <v>241883</v>
       </c>
       <c r="AA5">
-        <v>239.1386114340276</v>
+        <v>-7.023809519479983</v>
       </c>
       <c r="AB5">
-        <v>219951.7673454285</v>
+        <v>-8628.823805332184</v>
       </c>
       <c r="AC5">
-        <v>753605.2125854492</v>
+        <v>-5965.157140672207</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>63.85835870053698</v>
       </c>
       <c r="AE5">
-        <v>49114.17156469134</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>3390.113513710025</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH5">
-        <v>167826.2104253769</v>
+        <v>-3784.75000873208</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>7785</v>
       </c>
       <c r="Y6">
-        <v>55.71577214668791</v>
+        <v>49.14766574078319</v>
       </c>
       <c r="Z6">
         <v>104909</v>
       </c>
       <c r="AA6">
-        <v>212.2265235092491</v>
+        <v>-4.714285710128024</v>
       </c>
       <c r="AB6">
-        <v>202863.6497383118</v>
+        <v>-6595.142853617668</v>
       </c>
       <c r="AC6">
-        <v>670453.5892944336</v>
+        <v>-4718.857141077518</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>50.80275793991333</v>
       </c>
       <c r="AE6">
-        <v>42277.36077534614</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3293.610425546656</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH6">
-        <v>159153.7414970398</v>
+        <v>-3063.250007212162</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>332307</v>
       </c>
       <c r="AA7">
-        <v>190.8134365826845</v>
+        <v>-2.714285710710101</v>
       </c>
       <c r="AB7">
-        <v>202485.5571556091</v>
+        <v>-4785.735711455345</v>
       </c>
       <c r="AC7">
-        <v>611865.1156845093</v>
+        <v>-3584.699998557568</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>54.88789072821898</v>
       </c>
       <c r="AE7">
-        <v>7812.358478555931</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1226.359874983702</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH7">
-        <v>153594.8418998718</v>
+        <v>-2415.25000590086</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>574605</v>
       </c>
       <c r="AA8">
-        <v>174.8993506561965</v>
+        <v>-1.02380952052772</v>
       </c>
       <c r="AB8">
-        <v>218817.48960495</v>
+        <v>-3200.60237878561</v>
       </c>
       <c r="AC8">
-        <v>577839.7917861938</v>
+        <v>-2562.685713171959</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>50.70118150713379</v>
       </c>
       <c r="AE8">
-        <v>42996.52984800197</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1559.641127932526</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH8">
-        <v>151149.5116319656</v>
+        <v>-1840.750004678965</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>487782</v>
       </c>
       <c r="AA9">
-        <v>164.4842657316476</v>
+        <v>0.3571428599534556</v>
       </c>
       <c r="AB9">
-        <v>251859.4470787048</v>
+        <v>-1839.742855489254</v>
       </c>
       <c r="AC9">
-        <v>568377.6176071167</v>
+        <v>-1652.81428489089</v>
       </c>
       <c r="AD9">
-        <v>496.8041949272156</v>
+        <v>54.96935241299835</v>
       </c>
       <c r="AE9">
-        <v>21330.84954629216</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>3334.476618443573</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH9">
-        <v>151817.7506952286</v>
+        <v>-1339.750003606081</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>382225</v>
       </c>
       <c r="AA10">
-        <v>159.5681818071753</v>
+        <v>1.428571430966258</v>
       </c>
       <c r="AB10">
-        <v>301611.4295806885</v>
+        <v>-703.1571417450905</v>
       </c>
       <c r="AC10">
-        <v>583478.5931091309</v>
+        <v>-855.0857137143612</v>
       </c>
       <c r="AD10">
-        <v>1240.999999165535</v>
+        <v>49.50838322299213</v>
       </c>
       <c r="AE10">
-        <v>4654.933249748579</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>2524.758262702475</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="AH10">
-        <v>155599.559088707</v>
+        <v>-912.2500026524067</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>251926</v>
       </c>
       <c r="AA11">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>370287</v>
+        <v>624</v>
       </c>
       <c r="AC11">
-        <v>587107</v>
+        <v>38</v>
       </c>
       <c r="AD11">
-        <v>2958</v>
+        <v>57</v>
       </c>
       <c r="AE11">
-        <v>15931</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>13570</v>
+        <v>1624</v>
       </c>
       <c r="AH11">
-        <v>208852</v>
+        <v>-558.250001847744</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>112159</v>
       </c>
       <c r="AA12">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="AB12">
-        <v>382941</v>
+        <v>196</v>
       </c>
       <c r="AC12">
-        <v>692761</v>
+        <v>198</v>
       </c>
       <c r="AD12">
-        <v>2393</v>
+        <v>69</v>
       </c>
       <c r="AE12">
-        <v>146235</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>5993</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>14439</v>
+        <v>1624</v>
       </c>
       <c r="AH12">
-        <v>155690</v>
+        <v>-277.7500011622906</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>126191</v>
       </c>
       <c r="AA13">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>618378</v>
+        <v>1454</v>
       </c>
       <c r="AC13">
-        <v>853626</v>
+        <v>520</v>
       </c>
       <c r="AD13">
-        <v>3684</v>
+        <v>27</v>
       </c>
       <c r="AE13">
-        <v>16177</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2752</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>15546</v>
+        <v>1624</v>
       </c>
       <c r="AH13">
-        <v>158596</v>
+        <v>-70.75000062584877</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>98226</v>
       </c>
       <c r="AA14">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="AB14">
-        <v>645716</v>
+        <v>1728</v>
       </c>
       <c r="AC14">
-        <v>903420</v>
+        <v>1494</v>
       </c>
       <c r="AD14">
-        <v>6192</v>
+        <v>44</v>
       </c>
       <c r="AE14">
-        <v>11294</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>4764</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>15737</v>
+        <v>1624</v>
       </c>
       <c r="AH14">
-        <v>192923</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>408942</v>
       </c>
       <c r="AA15">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>819832</v>
+        <v>1464</v>
       </c>
       <c r="AC15">
-        <v>915223</v>
+        <v>1631</v>
       </c>
       <c r="AD15">
-        <v>7010</v>
+        <v>63</v>
       </c>
       <c r="AE15">
-        <v>8893</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>3269</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>16240</v>
+        <v>1624</v>
       </c>
       <c r="AH15">
-        <v>199099</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>568532</v>
       </c>
       <c r="AA16">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1006821</v>
+        <v>1972</v>
       </c>
       <c r="AC16">
-        <v>1203952</v>
+        <v>1544</v>
       </c>
       <c r="AD16">
-        <v>9136</v>
+        <v>67</v>
       </c>
       <c r="AE16">
-        <v>19382</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>14553</v>
+        <v>1624</v>
       </c>
       <c r="AH16">
-        <v>169392</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>926.0793</v>
       </c>
       <c r="K17">
-        <v>11.8611564009916</v>
+        <v>11.86115640378557</v>
       </c>
       <c r="L17">
-        <v>0.417836725118832</v>
+        <v>0.4178367251406598</v>
       </c>
       <c r="M17">
         <v>6.03625397577408</v>
@@ -2226,28 +2226,28 @@
         <v>658370</v>
       </c>
       <c r="AA17">
-        <v>292</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>1107842.7</v>
+        <v>625.3</v>
       </c>
       <c r="AC17">
-        <v>1360733.5</v>
+        <v>1505.8</v>
       </c>
       <c r="AD17">
-        <v>13761</v>
+        <v>46</v>
       </c>
       <c r="AE17">
-        <v>11671</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>44800</v>
+        <v>1624</v>
       </c>
       <c r="AH17">
-        <v>349930</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1071.2</v>
       </c>
       <c r="K18">
-        <v>13.33672254066914</v>
+        <v>13.33672254392877</v>
       </c>
       <c r="L18">
-        <v>0.2953800389550452</v>
+        <v>0.2953800389659591</v>
       </c>
       <c r="M18">
         <v>4.71236017978211</v>
@@ -2312,13 +2312,13 @@
         <v>217222</v>
       </c>
       <c r="U18">
-        <v>0.9914505494489276</v>
+        <v>0.9914505494707555</v>
       </c>
       <c r="V18">
         <v>93.59999999999999</v>
       </c>
       <c r="W18">
-        <v>96.95421977946535</v>
+        <v>96.9542197752744</v>
       </c>
       <c r="X18">
         <v>18556</v>
@@ -2330,28 +2330,28 @@
         <v>436816</v>
       </c>
       <c r="AA18">
-        <v>286</v>
+        <v>-1.142857145401649</v>
       </c>
       <c r="AB18">
-        <v>1394285.1</v>
+        <v>315.6714283227921</v>
       </c>
       <c r="AC18">
-        <v>1835505.1</v>
+        <v>1489.599999785423</v>
       </c>
       <c r="AD18">
-        <v>13203</v>
+        <v>45.55833454803803</v>
       </c>
       <c r="AE18">
-        <v>14691.3</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>124.5</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>34905.1</v>
+        <v>1624</v>
       </c>
       <c r="AH18">
-        <v>331740.9</v>
+        <v>-138.250000089407</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>52.5</v>
       </c>
       <c r="E19">
-        <v>20340.66964280605</v>
+        <v>20340.6696421653</v>
       </c>
       <c r="F19">
         <v>25367.4128</v>
@@ -2386,10 +2386,10 @@
         <v>1107.5</v>
       </c>
       <c r="K19">
-        <v>15.29969268816058</v>
+        <v>15.29969269153662</v>
       </c>
       <c r="L19">
-        <v>0.1636123752687126</v>
+        <v>0.1636123752796266</v>
       </c>
       <c r="M19">
         <v>4.03639794387399</v>
@@ -2416,13 +2416,13 @@
         <v>143615</v>
       </c>
       <c r="U19">
-        <v>1.074851648354525</v>
+        <v>1.07485164837999</v>
       </c>
       <c r="V19">
         <v>95.3</v>
       </c>
       <c r="W19">
-        <v>95.38830219698139</v>
+        <v>95.38830219209194</v>
       </c>
       <c r="X19">
         <v>26014</v>
@@ -2434,28 +2434,28 @@
         <v>400370</v>
       </c>
       <c r="AA19">
-        <v>326</v>
+        <v>-2.857142860535532</v>
       </c>
       <c r="AB19">
-        <v>1348150.5</v>
+        <v>-566.207143008709</v>
       </c>
       <c r="AC19">
-        <v>1651065.7</v>
+        <v>1278.042856991291</v>
       </c>
       <c r="AD19">
-        <v>13595</v>
+        <v>49.59248544522031</v>
       </c>
       <c r="AE19">
-        <v>34647.4</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>2836.2</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>46479</v>
+        <v>1624</v>
       </c>
       <c r="AH19">
-        <v>329917.8</v>
+        <v>-372.2500003874302</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>52.4</v>
       </c>
       <c r="E20">
-        <v>21924.7956931442</v>
+        <v>21924.79569241405</v>
       </c>
       <c r="F20">
         <v>25133.1664</v>
@@ -2490,10 +2490,10 @@
         <v>1247.3259</v>
       </c>
       <c r="K20">
-        <v>17.75006684358232</v>
+        <v>17.75006684730761</v>
       </c>
       <c r="L20">
-        <v>0.02253373406347237</v>
+        <v>0.02253373408166226</v>
       </c>
       <c r="M20">
         <v>3.35699923207917</v>
@@ -2520,13 +2520,13 @@
         <v>117491</v>
       </c>
       <c r="U20">
-        <v>1.170056237886456</v>
+        <v>1.17005623791556</v>
       </c>
       <c r="V20">
         <v>96.90000000000001</v>
       </c>
       <c r="W20">
-        <v>93.14033548696898</v>
+        <v>93.14033548091538</v>
       </c>
       <c r="X20">
         <v>29892</v>
@@ -2538,28 +2538,28 @@
         <v>343922</v>
       </c>
       <c r="AA20">
-        <v>399</v>
+        <v>-4.880952385021374</v>
       </c>
       <c r="AB20">
-        <v>1633490</v>
+        <v>-1672.359523773193</v>
       </c>
       <c r="AC20">
-        <v>1993962</v>
+        <v>954.3428570628166</v>
       </c>
       <c r="AD20">
-        <v>17326</v>
+        <v>64.04761049691453</v>
       </c>
       <c r="AE20">
-        <v>36288</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1252</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>32518</v>
+        <v>1624</v>
       </c>
       <c r="AH20">
-        <v>363594</v>
+        <v>-679.750000834465</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>52.6</v>
       </c>
       <c r="E21">
-        <v>23564.40388633311</v>
+        <v>23564.40388552845</v>
       </c>
       <c r="F21">
         <v>26970.8</v>
@@ -2594,25 +2594,25 @@
         <v>1328.8164</v>
       </c>
       <c r="K21">
-        <v>20.68784500635229</v>
+        <v>20.68784501077607</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-0.1278558846388478</v>
       </c>
       <c r="M21">
         <v>2.52163431585683</v>
       </c>
       <c r="N21">
-        <v>195.7963094412345</v>
+        <v>206.4462090634487</v>
       </c>
       <c r="O21">
-        <v>112.4748529260978</v>
+        <v>112.4748529307544</v>
       </c>
       <c r="P21">
         <v>3433.5</v>
       </c>
       <c r="Q21">
-        <v>94.66215686115902</v>
+        <v>94.6621568640694</v>
       </c>
       <c r="R21">
         <v>42.5</v>
@@ -2621,49 +2621,49 @@
         <v>1060541</v>
       </c>
       <c r="T21">
-        <v>188359.1773771757</v>
+        <v>164664.3904849582</v>
       </c>
       <c r="U21">
-        <v>1.27706431804836</v>
+        <v>1.277064318081102</v>
       </c>
       <c r="V21">
         <v>96.40000000000001</v>
       </c>
       <c r="W21">
-        <v>90.21031964942813</v>
+        <v>90.21031964267604</v>
       </c>
       <c r="X21">
-        <v>22825.98403003225</v>
+        <v>21429.55612620342</v>
       </c>
       <c r="Y21">
-        <v>56.78572944036323</v>
+        <v>58.65408437430136</v>
       </c>
       <c r="Z21">
         <v>186389</v>
       </c>
       <c r="AA21">
-        <v>470</v>
+        <v>-7.214285719208419</v>
       </c>
       <c r="AB21">
-        <v>2020924</v>
+        <v>-3002.785714030266</v>
       </c>
       <c r="AC21">
-        <v>2403316</v>
+        <v>518.5000000298023</v>
       </c>
       <c r="AD21">
-        <v>19868</v>
+        <v>52.08731869923268</v>
       </c>
       <c r="AE21">
-        <v>17665</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1127</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>27024</v>
+        <v>1624</v>
       </c>
       <c r="AH21">
-        <v>439231</v>
+        <v>-1060.750001430511</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>52.2</v>
       </c>
       <c r="E22">
-        <v>25259.49422238767</v>
+        <v>25259.4942214489</v>
       </c>
       <c r="F22">
         <v>27637.2887</v>
@@ -2692,82 +2692,82 @@
         <v>58.35</v>
       </c>
       <c r="I22">
-        <v>3.277708978304872</v>
+        <v>3.277708978283044</v>
       </c>
       <c r="J22">
-        <v>1557.066831737757</v>
+        <v>1557.066831748933</v>
       </c>
       <c r="K22">
-        <v>24.1130271772854</v>
+        <v>24.11302718205843</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-0.2875564808746276</v>
       </c>
       <c r="M22">
-        <v>16.61467716330662</v>
+        <v>16.61467716889456</v>
       </c>
       <c r="N22">
-        <v>199.7323578400814</v>
+        <v>204.1745139371998</v>
       </c>
       <c r="O22">
-        <v>131.7625773814507</v>
+        <v>131.7625773861073</v>
       </c>
       <c r="P22">
-        <v>4069.681357602134</v>
+        <v>3347.4876157294</v>
       </c>
       <c r="Q22">
-        <v>93.12776057637529</v>
+        <v>93.12776057963492</v>
       </c>
       <c r="R22">
-        <v>47.07588234811556</v>
+        <v>47.07588235731237</v>
       </c>
       <c r="S22">
         <v>610272</v>
       </c>
       <c r="T22">
-        <v>145214.910838445</v>
+        <v>142840.4466657118</v>
       </c>
       <c r="U22">
-        <v>1.395875888836599</v>
+        <v>1.395875888883893</v>
       </c>
       <c r="V22">
-        <v>93.3223632585723</v>
+        <v>93.32236325624399</v>
       </c>
       <c r="W22">
-        <v>86.59825468459167</v>
+        <v>86.59825467714109</v>
       </c>
       <c r="X22">
-        <v>11487.06838650163</v>
+        <v>27912.83902234694</v>
       </c>
       <c r="Y22">
-        <v>54.67041530110883</v>
+        <v>52.78919107254814</v>
       </c>
       <c r="Z22">
-        <v>320383.9785778171</v>
+        <v>512151.25159131</v>
       </c>
       <c r="AA22">
-        <v>561</v>
+        <v>-9.857142862863839</v>
       </c>
       <c r="AB22">
-        <v>2233773.6</v>
+        <v>-4557.485713720322</v>
       </c>
       <c r="AC22">
-        <v>2719934.4</v>
+        <v>-29.48571410775185</v>
       </c>
       <c r="AD22">
-        <v>23894</v>
+        <v>48.04487192246757</v>
       </c>
       <c r="AE22">
-        <v>5748</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>18195.1</v>
+        <v>1624</v>
       </c>
       <c r="AH22">
-        <v>396549.3</v>
+        <v>-1515.250002145767</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>54.5</v>
       </c>
       <c r="E23">
-        <v>27010.06670126319</v>
+        <v>27010.06670022011</v>
       </c>
       <c r="F23">
-        <v>30344.45321654528</v>
+        <v>30344.45321618766</v>
       </c>
       <c r="G23">
         <v>-3.12</v>
       </c>
       <c r="H23">
-        <v>61.35872549278429</v>
+        <v>61.35872549170745</v>
       </c>
       <c r="I23">
-        <v>3.13628482968852</v>
+        <v>3.136284829673968</v>
       </c>
       <c r="J23">
-        <v>1723.905993252993</v>
+        <v>1723.905993267894</v>
       </c>
       <c r="K23">
-        <v>28.02561335603241</v>
+        <v>28.02561336092185</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.4565680546293152</v>
       </c>
       <c r="M23">
-        <v>24.91611887142062</v>
+        <v>24.9161188788712</v>
       </c>
       <c r="N23">
-        <v>199.2261398173524</v>
+        <v>205.5524191836717</v>
       </c>
       <c r="O23">
-        <v>152.5463312491775</v>
+        <v>152.5463312542997</v>
       </c>
       <c r="P23">
-        <v>4267.031092916402</v>
+        <v>3734.083789851356</v>
       </c>
       <c r="Q23">
-        <v>91.34926728426944</v>
+        <v>91.34926728787832</v>
       </c>
       <c r="R23">
-        <v>53.42102940543555</v>
+        <v>53.421029416495</v>
       </c>
       <c r="S23">
-        <v>805970.9246478081</v>
+        <v>805970.9246516228</v>
       </c>
       <c r="T23">
-        <v>158555.1437191317</v>
+        <v>145849.9987024452</v>
       </c>
       <c r="U23">
-        <v>1.526490950251173</v>
+        <v>1.526490950302104</v>
       </c>
       <c r="V23">
-        <v>91.70880907890387</v>
+        <v>91.70880907680839</v>
       </c>
       <c r="W23">
-        <v>82.30414059269242</v>
+        <v>82.30414058384486</v>
       </c>
       <c r="X23">
-        <v>22512.23622857677</v>
+        <v>24701.46768493461</v>
       </c>
       <c r="Y23">
-        <v>57.97618294053198</v>
+        <v>60.76224051199566</v>
       </c>
       <c r="Z23">
-        <v>222995.7909068935</v>
+        <v>410563.5024548604</v>
       </c>
       <c r="AA23">
-        <v>596.0681818816811</v>
+        <v>-12.80952381622046</v>
       </c>
       <c r="AB23">
-        <v>2468999.47959137</v>
+        <v>-6336.459522843361</v>
       </c>
       <c r="AC23">
-        <v>3015037.897911072</v>
+        <v>-689.6142853498459</v>
       </c>
       <c r="AD23">
-        <v>25935.72727406025</v>
+        <v>58.81300249059817</v>
       </c>
       <c r="AE23">
-        <v>49638.38866999057</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1134.575096276768</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>22850.34090709686</v>
+        <v>1624</v>
       </c>
       <c r="AH23">
-        <v>488097.8772687912</v>
+        <v>-2043.250003010035</v>
       </c>
     </row>
   </sheetData>
